--- a/documents/NAICS Codes.xlsx
+++ b/documents/NAICS Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568CBE6F-552E-4914-A545-F9D7E04A4D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68858EE8-7BDC-445D-A234-914E000D5E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31960" yWindow="1120" windowWidth="29340" windowHeight="19290" xr2:uid="{D6DE4766-D369-4941-94C4-55DCC4112463}"/>
+    <workbookView xWindow="2780" yWindow="1080" windowWidth="19460" windowHeight="19290" xr2:uid="{D6DE4766-D369-4941-94C4-55DCC4112463}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Environmental Training &amp; Course Development For The Civil Engineer Corps Officers School (CECOS) Environmental Training Division, Port Hueneme, Ca**</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>pk</t>
+  </si>
+  <si>
+    <t>CECOS</t>
+  </si>
+  <si>
+    <t>envirospectrum is off</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>ft bel</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>GSA</t>
+  </si>
+  <si>
+    <t>NAVOSH</t>
+  </si>
+  <si>
+    <t>PAX</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Regional Haz</t>
+  </si>
+  <si>
+    <t>WACA</t>
   </si>
 </sst>
 </file>
@@ -182,9 +218,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,19 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99ABC8B-00CA-4D4C-B7C2-37D0AE27E4FE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="76.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -522,146 +561,232 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>611699</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>541620</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>562112</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>611430</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>541620</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>562910</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>641620</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>541620</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>562910</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>541620</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>541620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2">
+        <v>611699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2">
+        <v>611699</v>
+      </c>
+      <c r="G16" s="2">
+        <v>562910</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2">
+        <v>541620</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2">
+        <v>541620</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>562910</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
